--- a/va_facility_data_2025-02-20/Forty-Sixth Street South VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Forty-Sixth%20Street%20South%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Forty-Sixth Street South VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Forty-Sixth%20Street%20South%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re7644a5d6be84a59b7d777a823f323c9"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R45463ffc873649a79ff65b2b8a407cdc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd9b543fc1cd4445f98d439b5997c6662"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rce51a176b5344a868f3bf34e44b12e49"/>
   </x:sheets>
 </x:workbook>
 </file>
